--- a/V-Cycle Process/V_Cycle Process Script.xlsx
+++ b/V-Cycle Process/V_Cycle Process Script.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uidn8311\Desktop\Git Projects Repositorywc\trunk\V-Cycle Process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="3180" windowWidth="15015" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="V-Cycle" sheetId="2" r:id="rId1"/>
@@ -321,8 +326,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +545,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1641,7 +1654,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Right Arrow 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1733,7 +1746,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1765,9 +1778,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1799,6 +1813,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1974,12 +1989,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1988,29 +2003,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.140625" customWidth="1"/>
     <col min="5" max="5" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="18" customHeight="1">
+    <row r="8" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
@@ -2026,25 +2039,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:5" s="13" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="3:5" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
       <c r="D9" s="40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:5" s="19" customFormat="1" ht="18" customHeight="1">
+    <row r="10" spans="3:5" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="20"/>
       <c r="D10" s="41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>1</v>
       </c>
@@ -2055,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="51">
         <v>1</v>
       </c>
@@ -2066,28 +2079,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
       <c r="E15" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
       <c r="E16" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="51"/>
       <c r="D17" s="52"/>
       <c r="E17" s="31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="51">
         <v>2</v>
       </c>
@@ -2098,33 +2111,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:5" s="21" customFormat="1">
+    <row r="19" spans="3:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="51"/>
       <c r="D19" s="52"/>
       <c r="E19" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="51"/>
       <c r="D20" s="52"/>
       <c r="E20" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="51"/>
       <c r="D21" s="52"/>
       <c r="E21" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="51">
         <v>3</v>
       </c>
@@ -2135,28 +2148,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
       <c r="E24" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
       <c r="E25" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
       <c r="E26" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="30">
+    <row r="28" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="16" t="s">
         <v>8</v>
       </c>
@@ -2164,31 +2177,31 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="17"/>
       <c r="D29" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="3:5" s="21" customFormat="1" ht="30">
+    <row r="30" spans="3:5" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="36"/>
       <c r="D30" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="3:5" s="21" customFormat="1">
+    <row r="31" spans="3:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36"/>
       <c r="D31" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="18"/>
       <c r="D32" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="3:4" s="21" customFormat="1">
+    <row r="33" spans="3:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="49"/>
       <c r="D33" s="50"/>
     </row>
@@ -2213,27 +2226,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" customWidth="1"/>
     <col min="5" max="5" width="84.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="36" customHeight="1">
+    <row r="5" spans="3:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2241,7 +2256,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="32.25" customHeight="1">
+    <row r="8" spans="3:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
@@ -2249,31 +2264,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:5" s="21" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="3:5" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="33"/>
       <c r="D9" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="3:5" s="21" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="3:5" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="33"/>
       <c r="D10" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="3:5" s="21" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="3:5" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="33"/>
       <c r="D11" s="40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
         <v>1</v>
       </c>
@@ -2284,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="51">
         <v>1</v>
       </c>
@@ -2295,28 +2310,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
       <c r="E16" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="51"/>
       <c r="D17" s="52"/>
       <c r="E17" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="51"/>
       <c r="D18" s="52"/>
       <c r="E18" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="51">
         <v>2</v>
       </c>
@@ -2327,24 +2342,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="51"/>
       <c r="D20" s="52"/>
       <c r="E20" s="30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="51"/>
       <c r="D21" s="52"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>8</v>
       </c>
@@ -2352,19 +2367,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="11"/>
       <c r="D25" s="30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="3:5" s="21" customFormat="1">
+    <row r="26" spans="3:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="33"/>
       <c r="D26" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="3:5" s="21" customFormat="1">
+    <row r="27" spans="3:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="26" t="s">
         <v>98</v>
@@ -2388,12 +2403,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="21"/>
     <col min="3" max="3" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
@@ -2402,15 +2417,15 @@
     <col min="6" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" s="22"/>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="36" customHeight="1">
+    <row r="5" spans="3:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2433,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="16.5" customHeight="1">
+    <row r="8" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="28" t="s">
         <v>3</v>
       </c>
@@ -2426,31 +2441,31 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="16.5" customHeight="1">
+    <row r="9" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="33"/>
       <c r="D9" s="40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="15.75" customHeight="1">
+    <row r="10" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="33"/>
       <c r="D10" s="40" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="15.75" customHeight="1">
+    <row r="11" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="33"/>
       <c r="D11" s="40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="26"/>
       <c r="D12" s="46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="32" t="s">
         <v>1</v>
       </c>
@@ -2461,7 +2476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="51">
         <v>1</v>
       </c>
@@ -2472,26 +2487,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
       <c r="E16" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="51"/>
       <c r="D17" s="52"/>
       <c r="E17" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="51"/>
       <c r="D18" s="52"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="51">
         <v>2</v>
       </c>
@@ -2502,26 +2517,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="51"/>
       <c r="D20" s="52"/>
       <c r="E20" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="51"/>
       <c r="D21" s="52"/>
       <c r="E21" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="51">
         <v>3</v>
       </c>
@@ -2532,26 +2547,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
       <c r="E24" s="37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
       <c r="E25" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="28" t="s">
         <v>8</v>
       </c>
@@ -2559,19 +2574,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="33"/>
       <c r="D29" s="34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="33"/>
       <c r="D30" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
         <v>98</v>
@@ -2600,14 +2615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="21"/>
     <col min="3" max="3" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
@@ -2616,15 +2631,15 @@
     <col min="6" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" s="22"/>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="36" customHeight="1">
+    <row r="5" spans="3:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="19.5" customHeight="1">
+    <row r="8" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="28" t="s">
         <v>3</v>
       </c>
@@ -2640,19 +2655,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="15.75" customHeight="1">
+    <row r="9" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="33"/>
       <c r="D9" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" s="26"/>
       <c r="D10" s="46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="32" t="s">
         <v>1</v>
       </c>
@@ -2663,7 +2678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="51">
         <v>1</v>
       </c>
@@ -2674,26 +2689,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="51"/>
       <c r="D14" s="52"/>
       <c r="E14" s="45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
       <c r="E15" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="51">
         <v>2</v>
       </c>
@@ -2704,26 +2719,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="51"/>
       <c r="D18" s="52"/>
       <c r="E18" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="45">
+    <row r="19" spans="3:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C19" s="51"/>
       <c r="D19" s="52"/>
       <c r="E19" s="44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="51"/>
       <c r="D20" s="52"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="28" t="s">
         <v>8</v>
       </c>
@@ -2731,19 +2746,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="33"/>
       <c r="D23" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="33"/>
       <c r="D24" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
         <v>98</v>
@@ -2767,14 +2782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="21"/>
     <col min="3" max="3" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
@@ -2783,15 +2798,15 @@
     <col min="6" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" s="22"/>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="36" customHeight="1">
+    <row r="5" spans="3:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>0</v>
       </c>
@@ -2799,7 +2814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="19.5" customHeight="1">
+    <row r="8" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="28" t="s">
         <v>3</v>
       </c>
@@ -2807,19 +2822,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="15.75" customHeight="1">
+    <row r="9" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="33"/>
       <c r="D9" s="29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" s="26"/>
       <c r="D10" s="46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="32" t="s">
         <v>1</v>
       </c>
@@ -2830,7 +2845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="51">
         <v>1</v>
       </c>
@@ -2841,26 +2856,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="51"/>
       <c r="D14" s="52"/>
       <c r="E14" s="45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
       <c r="E15" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="51">
         <v>2</v>
       </c>
@@ -2871,26 +2886,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="51"/>
       <c r="D18" s="52"/>
       <c r="E18" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="30">
+    <row r="19" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="51"/>
       <c r="D19" s="52"/>
       <c r="E19" s="44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="51"/>
       <c r="D20" s="52"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="28" t="s">
         <v>8</v>
       </c>
@@ -2898,34 +2913,34 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="33"/>
       <c r="D24" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="33"/>
       <c r="D25" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="33"/>
       <c r="D26" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D28" s="39"/>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="53"/>
       <c r="D29" s="52" t="s">
         <v>85</v>
@@ -2934,21 +2949,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="53"/>
       <c r="D30" s="52"/>
       <c r="E30" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="3:5" ht="30">
+    <row r="31" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="53"/>
       <c r="D31" s="52"/>
       <c r="E31" s="44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="30">
+    <row r="32" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C32" s="53"/>
       <c r="D32" s="52"/>
       <c r="E32" s="43" t="s">
